--- a/bioSample/bioSample_H.BROWN_10.22.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_10.22.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97884D6F-F108-C54E-B40D-16A4131FADC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B7C76-2C66-554A-88ED-CDD385E5FD8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{7A69395A-A1E8-8A4D-84FA-35DDC31F0602}"/>
+    <workbookView xWindow="15160" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{7A69395A-A1E8-8A4D-84FA-35DDC31F0602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
   <si>
     <t>harvestDate</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>90minuteinduction</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>G418</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,14 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C33"/>
+      <selection activeCell="D1" sqref="D1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -640,6 +650,9 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -669,6 +682,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -698,6 +714,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -727,6 +746,9 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -756,6 +778,9 @@
       <c r="I8">
         <v>5</v>
       </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -785,6 +810,9 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -814,6 +842,9 @@
       <c r="I10">
         <v>3</v>
       </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -843,6 +874,9 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -872,6 +906,9 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -901,6 +938,9 @@
       <c r="I13">
         <v>5</v>
       </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -930,6 +970,9 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -988,8 +1031,11 @@
       <c r="I16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1017,8 +1063,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1046,8 +1095,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1127,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1159,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1133,8 +1191,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1223,11 @@
       <c r="I22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1191,8 +1255,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1220,8 +1287,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1249,8 +1319,11 @@
       <c r="I25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +1351,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1383,11 @@
       <c r="I27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1336,8 +1415,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1365,8 +1447,11 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1394,8 +1479,11 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1423,8 +1511,11 @@
       <c r="I31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1452,8 +1543,11 @@
       <c r="I32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1480,6 +1574,9 @@
       </c>
       <c r="I33">
         <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_H.BROWN_10.22.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_10.22.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14328D3-8714-C540-B69E-9D5AF6B4EB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE7D1E-330A-8E49-AF91-58B5DD5EEB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="84">
   <si>
     <t>harvestDate</t>
   </si>
@@ -290,6 +290,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,7 +638,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1242,9 @@
       <c r="L15">
         <v>3</v>
       </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
